--- a/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
+++ b/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>Comment</t>
   </si>
@@ -39,13 +39,28 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>2.2uF 450V</t>
+  </si>
+  <si>
+    <t>CAP CER 2.2UF 450V X6S 2220</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>CAP-2220</t>
+  </si>
+  <si>
+    <t>2220-2.2uF-450V</t>
+  </si>
+  <si>
     <t>22uF 10V</t>
   </si>
   <si>
     <t>CAP CER 22UF 10V X5R 0805</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>C2</t>
   </si>
   <si>
     <t>CAP-0805</t>
@@ -54,28 +69,13 @@
     <t>0805-22uF-10V</t>
   </si>
   <si>
-    <t>2.2uF 450V</t>
-  </si>
-  <si>
-    <t>CAP CER 2.2UF 450V X6S 2220</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>CAP-2220</t>
-  </si>
-  <si>
-    <t>2220-2.2uF-450V</t>
-  </si>
-  <si>
     <t>Green</t>
   </si>
   <si>
     <t>LED GREEN CLEAR 0603 SMD</t>
   </si>
   <si>
-    <t>D1, D2</t>
+    <t>D1 GATE_CTRL, D2 5V_TS</t>
   </si>
   <si>
     <t>LED-0603</t>
@@ -129,7 +129,7 @@
     <t>Single layer pad TP</t>
   </si>
   <si>
-    <t>JP1 D+12V_LV, JP2 LV_GND, JP3 TS, JP4 D+60V_HV, JP5 HV_GND, JP6 D+5V_TS</t>
+    <t>JP1 GATE_CTRL, JP2 D+12V_LV, JP3 VCU_ACTIVE, JP4 LV_GND, JP5 COMP_OUT, JP6 D+5V_TS</t>
   </si>
   <si>
     <t>TP2</t>
@@ -297,16 +297,19 @@
     <t>OPTO-ISO-3.75kV</t>
   </si>
   <si>
-    <t>NCV5501DT50RKGOSCT-ND</t>
-  </si>
-  <si>
-    <t>IC REG LINEAR 5V 500MA DPAK</t>
+    <t>NCP785AH50T1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>IC REG LINEAR 5V 10MA SOT89-3</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>LDO-5V-500mA</t>
+    <t>SOT-89</t>
+  </si>
+  <si>
+    <t>LDO-12V-10mA</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1058,10 @@
         <v>95</v>
       </c>
       <c r="D21" s="44" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="45">
         <v>1</v>

--- a/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
+++ b/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
@@ -129,7 +129,7 @@
     <t>Single layer pad TP</t>
   </si>
   <si>
-    <t>JP1 GATE_CTRL, JP2 D+12V_LV, JP3 VCU_ACTIVE, JP4 LV_GND, JP5 COMP_OUT, JP6 D+5V_TS</t>
+    <t>JP1 GATE_CTRL, JP2 D+LV, JP3 VCU_ACTIVE, JP4 LV_GND, JP5 COMP_OUT, JP6 D+5V_TS</t>
   </si>
   <si>
     <t>TP2</t>

--- a/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
+++ b/TSAL/TSAL_REV2/Released/BOM/Bill of Materials-TSAL_REV2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Comment</t>
   </si>
@@ -39,6 +39,9 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Manufacturer Part Number</t>
+  </si>
+  <si>
     <t>2.2uF 450V</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>2220-2.2uF-450V</t>
   </si>
   <si>
+    <t>C5750X6S2W225K250KA</t>
+  </si>
+  <si>
     <t>22uF 10V</t>
   </si>
   <si>
@@ -69,6 +75,9 @@
     <t>0805-22uF-10V</t>
   </si>
   <si>
+    <t>C0805C226M8PACTU</t>
+  </si>
+  <si>
     <t>Green</t>
   </si>
   <si>
@@ -84,6 +93,9 @@
     <t>LED-Green</t>
   </si>
   <si>
+    <t>150060VS75000</t>
+  </si>
+  <si>
     <t>250V 800mA</t>
   </si>
   <si>
@@ -99,6 +111,9 @@
     <t>Fuse 250V-0.8A</t>
   </si>
   <si>
+    <t>0678D0800-02</t>
+  </si>
+  <si>
     <t>WM4928-ND</t>
   </si>
   <si>
@@ -111,6 +126,9 @@
     <t>6PIN</t>
   </si>
   <si>
+    <t>70553-0040</t>
+  </si>
+  <si>
     <t>WM4153-ND</t>
   </si>
   <si>
@@ -123,6 +141,9 @@
     <t>2PIN</t>
   </si>
   <si>
+    <t>0705530106</t>
+  </si>
+  <si>
     <t>Testpoint2</t>
   </si>
   <si>
@@ -165,6 +186,9 @@
     <t>N-FET-60V-50A</t>
   </si>
   <si>
+    <t>IPD50N06S4L12ATMA2</t>
+  </si>
+  <si>
     <t>NTD2955T4GOSCT-ND</t>
   </si>
   <si>
@@ -177,6 +201,9 @@
     <t>P-FET-60V-12A</t>
   </si>
   <si>
+    <t>NTD2955T4G</t>
+  </si>
+  <si>
     <t>20K 1%</t>
   </si>
   <si>
@@ -192,6 +219,9 @@
     <t>0603-20KR</t>
   </si>
   <si>
+    <t>RC0603FR-0720KL</t>
+  </si>
+  <si>
     <t>110K</t>
   </si>
   <si>
@@ -207,6 +237,9 @@
     <t>0805-110KR</t>
   </si>
   <si>
+    <t>RC0805FR-07110KL</t>
+  </si>
+  <si>
     <t>10K 1%</t>
   </si>
   <si>
@@ -219,6 +252,9 @@
     <t>0805-10KR</t>
   </si>
   <si>
+    <t>RC0805FR-0710KL</t>
+  </si>
+  <si>
     <t>73.2K 1%</t>
   </si>
   <si>
@@ -231,6 +267,9 @@
     <t>0603-73.2KR</t>
   </si>
   <si>
+    <t>RC0603FR-0773K2L</t>
+  </si>
+  <si>
     <t>30K 1%</t>
   </si>
   <si>
@@ -243,6 +282,9 @@
     <t>0603-30KR</t>
   </si>
   <si>
+    <t>RC0603FR-0730KL</t>
+  </si>
+  <si>
     <t>1K 1%</t>
   </si>
   <si>
@@ -255,6 +297,9 @@
     <t>0603-1KR</t>
   </si>
   <si>
+    <t>CRCW06031K00FKEA</t>
+  </si>
+  <si>
     <t>280R 1%</t>
   </si>
   <si>
@@ -267,6 +312,9 @@
     <t>0603-280R</t>
   </si>
   <si>
+    <t>RC0603FR-07280RL</t>
+  </si>
+  <si>
     <t>497-6777-1-ND</t>
   </si>
   <si>
@@ -282,6 +330,9 @@
     <t>Compare-TS861ILT</t>
   </si>
   <si>
+    <t>TS861ILT</t>
+  </si>
+  <si>
     <t>516-1787-1-ND</t>
   </si>
   <si>
@@ -297,6 +348,9 @@
     <t>OPTO-ISO-3.75kV</t>
   </si>
   <si>
+    <t>HCPL-181-00BE</t>
+  </si>
+  <si>
     <t>NCP785AH50T1GOSCT-ND</t>
   </si>
   <si>
@@ -310,6 +364,9 @@
   </si>
   <si>
     <t>LDO-12V-10mA</t>
+  </si>
+  <si>
+    <t>NCP785AH120T1G</t>
   </si>
 </sst>
 </file>
@@ -557,65 +614,66 @@
     <xf xxid="34" numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
     <xf xxid="35" numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyBorder="1" quotePrefix="1"/>
     <xf xxid="36" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1"/>
-    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1"/>
-    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
-    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
-    <xf xxid="48" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
-    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="37" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="38" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="39" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="40" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="41" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyBorder="1"/>
+    <xf xxid="42" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyBorder="1"/>
+    <xf xxid="43" numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="44" numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="45" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="46" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="47" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="48" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyBorder="1" quotePrefix="1"/>
+    <xf xxid="49" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="50" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyBorder="1" applyFill="1"/>
+    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="51" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="52" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="52" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="53" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="54" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="55" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="56" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="57" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="58" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xxid="58" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="59" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
+    <xf xxid="60" numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="60" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="61" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="62" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="63" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="64" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
+    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf xxid="65" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
+    <xf xxid="66" numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyAlignment="1" applyBorder="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -636,7 +694,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView view="normal" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -645,426 +703,486 @@
   <sheetFormatPr defaultRowHeight="12.75" baseColWidth="0"/>
   <cols>
     <col min="1" max="6" width="20.2109375" customWidth="1"/>
+    <col min="7" max="7" width="16.9609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="40" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="41" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
+      <c r="E2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="F2" s="43">
+        <v>1</v>
+      </c>
+      <c r="G2" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="44" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="C3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="D3" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="E3" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="F3" s="46">
+        <v>1</v>
+      </c>
+      <c r="G3" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="44" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="B4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="45">
+      <c r="C4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="G4" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="44" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="43" t="s">
+      <c r="B5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="C5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="D5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="E5" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="43" t="s">
+      <c r="F5" s="46">
+        <v>1</v>
+      </c>
+      <c r="G5" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="44" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="C6" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="D6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="46">
+        <v>1</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="46">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="45">
+      <c r="G7" s="45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="46">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="45">
+      <c r="G8" s="45"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="46">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="44" t="s">
+      <c r="G9" s="45"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="43" t="s">
+      <c r="C10" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="D10" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="E10" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="F10" s="46">
+        <v>1</v>
+      </c>
+      <c r="G10" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="44" t="s">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="43" t="s">
+      <c r="B11" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="C11" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="D11" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="F11" s="46">
+        <v>1</v>
+      </c>
+      <c r="G11" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="44" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="43" t="s">
+      <c r="B12" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="C12" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="44" t="s">
+      <c r="D12" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="E12" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F14" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="43" t="s">
+      <c r="F12" s="46">
+        <v>1</v>
+      </c>
+      <c r="G12" s="45" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="44" t="s">
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="B13" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="44" t="s">
+      <c r="C13" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="E13" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="F13" s="46">
+        <v>1</v>
+      </c>
+      <c r="G13" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="44" t="s">
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="43" t="s">
+      <c r="B14" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="C14" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="44" t="s">
+      <c r="D14" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="44" t="s">
+      <c r="F14" s="46">
+        <v>1</v>
+      </c>
+      <c r="G14" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="43" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B15" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C15" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="44" t="s">
+      <c r="D15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="43" t="s">
+      <c r="F15" s="46">
+        <v>1</v>
+      </c>
+      <c r="G15" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="44" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="B16" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="C16" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="44" t="s">
+      <c r="D16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="43" t="s">
+      <c r="F16" s="46">
+        <v>1</v>
+      </c>
+      <c r="G16" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="44" t="s">
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="C17" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="44" t="s">
+      <c r="D17" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="43" t="s">
+      <c r="F17" s="46">
+        <v>1</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="44" t="s">
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="C18" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="44" t="s">
+      <c r="D18" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="45">
-        <v>1</v>
+      <c r="F18" s="46">
+        <v>1</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="46">
+        <v>1</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="46">
+        <v>1</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="46">
+        <v>1</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
